--- a/hélices disponiveis na oficina.xlsx
+++ b/hélices disponiveis na oficina.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanr\Documents\Daniel\tucano\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -161,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -305,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -499,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,17 +505,21 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,12 +527,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -541,22 +540,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -564,97 +563,97 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -665,22 +664,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -688,52 +687,52 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>39</v>
       </c>
